--- a/Data/Netball/NetballWorldCupData_Consolidated.xlsx
+++ b/Data/Netball/NetballWorldCupData_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eis2win-my.sharepoint.com/personal/moses_wootten_uksportsinstitute_co_uk/Documents/#Tableau/Netball World Cup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F660DBEE-CE35-4917-AC6B-EC0F83292436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161FECFD-1E2B-48DA-80EF-B914312EDE73}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F660DBEE-CE35-4917-AC6B-EC0F83292436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF43B054-5E15-4B73-8C04-61973943978A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A291A13-446C-4933-A730-3733A39E566C}"/>
   </bookViews>
@@ -1119,8 +1119,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A1423" workbookViewId="0">
+      <selection activeCell="D1362" sqref="D1362:D1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
@@ -2856,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="D102">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
@@ -2873,7 +2873,7 @@
         <v>24</v>
       </c>
       <c r="D103">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
@@ -2890,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="D104">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
@@ -2907,7 +2907,7 @@
         <v>26</v>
       </c>
       <c r="D105">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
@@ -4386,7 +4386,7 @@
         <v>37</v>
       </c>
       <c r="D192">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
@@ -4403,7 +4403,7 @@
         <v>38</v>
       </c>
       <c r="D193">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
@@ -4420,7 +4420,7 @@
         <v>39</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E194" t="s">
         <v>18</v>
@@ -4437,7 +4437,7 @@
         <v>40</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195" t="s">
         <v>18</v>
@@ -5916,7 +5916,7 @@
         <v>51</v>
       </c>
       <c r="D282">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E282" t="s">
         <v>18</v>
@@ -5933,7 +5933,7 @@
         <v>52</v>
       </c>
       <c r="D283">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E283" t="s">
         <v>18</v>
@@ -5950,7 +5950,7 @@
         <v>53</v>
       </c>
       <c r="D284">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E284" t="s">
         <v>18</v>
@@ -5967,7 +5967,7 @@
         <v>54</v>
       </c>
       <c r="D285">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E285" t="s">
         <v>18</v>
@@ -5984,7 +5984,7 @@
         <v>55</v>
       </c>
       <c r="D286">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E286" t="s">
         <v>18</v>
@@ -7446,7 +7446,7 @@
         <v>65</v>
       </c>
       <c r="D372">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E372" t="s">
         <v>18</v>
@@ -7463,7 +7463,7 @@
         <v>66</v>
       </c>
       <c r="D373">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E373" t="s">
         <v>18</v>
@@ -7480,7 +7480,7 @@
         <v>67</v>
       </c>
       <c r="D374">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E374" t="s">
         <v>18</v>
@@ -7497,7 +7497,7 @@
         <v>68</v>
       </c>
       <c r="D375">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E375" t="s">
         <v>18</v>
@@ -8976,7 +8976,7 @@
         <v>79</v>
       </c>
       <c r="D462">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E462" t="s">
         <v>18</v>
@@ -8993,7 +8993,7 @@
         <v>80</v>
       </c>
       <c r="D463">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E463" t="s">
         <v>18</v>
@@ -9010,7 +9010,7 @@
         <v>81</v>
       </c>
       <c r="D464">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E464" t="s">
         <v>18</v>
@@ -9027,7 +9027,7 @@
         <v>82</v>
       </c>
       <c r="D465">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E465" t="s">
         <v>18</v>
@@ -10506,7 +10506,7 @@
         <v>93</v>
       </c>
       <c r="D552">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E552" t="s">
         <v>18</v>
@@ -10523,7 +10523,7 @@
         <v>94</v>
       </c>
       <c r="D553">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E553" t="s">
         <v>18</v>
@@ -10540,7 +10540,7 @@
         <v>95</v>
       </c>
       <c r="D554">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E554" t="s">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         <v>96</v>
       </c>
       <c r="D555">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E555" t="s">
         <v>18</v>
@@ -10574,7 +10574,7 @@
         <v>97</v>
       </c>
       <c r="D556">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E556" t="s">
         <v>18</v>
@@ -12036,7 +12036,7 @@
         <v>108</v>
       </c>
       <c r="D642">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E642" t="s">
         <v>18</v>
@@ -12053,7 +12053,7 @@
         <v>109</v>
       </c>
       <c r="D643">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E643" t="s">
         <v>18</v>
@@ -12070,7 +12070,7 @@
         <v>110</v>
       </c>
       <c r="D644">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E644" t="s">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         <v>111</v>
       </c>
       <c r="D645">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E645" t="s">
         <v>18</v>
@@ -13566,7 +13566,7 @@
         <v>122</v>
       </c>
       <c r="D732">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E732" t="s">
         <v>18</v>
@@ -13583,7 +13583,7 @@
         <v>123</v>
       </c>
       <c r="D733">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E733" t="s">
         <v>18</v>
@@ -15096,7 +15096,7 @@
         <v>136</v>
       </c>
       <c r="D822">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="E822" t="s">
         <v>18</v>
@@ -15113,7 +15113,7 @@
         <v>137</v>
       </c>
       <c r="D823">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E823" t="s">
         <v>18</v>
@@ -15130,7 +15130,7 @@
         <v>138</v>
       </c>
       <c r="D824">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E824" t="s">
         <v>18</v>
@@ -15164,7 +15164,7 @@
         <v>140</v>
       </c>
       <c r="D826">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E826" t="s">
         <v>18</v>
@@ -16626,7 +16626,7 @@
         <v>151</v>
       </c>
       <c r="D912">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E912" t="s">
         <v>18</v>
@@ -16643,7 +16643,7 @@
         <v>152</v>
       </c>
       <c r="D913">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E913" t="s">
         <v>18</v>
@@ -16660,7 +16660,7 @@
         <v>153</v>
       </c>
       <c r="D914">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E914" t="s">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         <v>154</v>
       </c>
       <c r="D915">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E915" t="s">
         <v>18</v>
@@ -18156,7 +18156,7 @@
         <v>165</v>
       </c>
       <c r="D1002">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="E1002" t="s">
         <v>18</v>
@@ -18173,7 +18173,7 @@
         <v>166</v>
       </c>
       <c r="D1003">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E1003" t="s">
         <v>18</v>
@@ -18190,7 +18190,7 @@
         <v>167</v>
       </c>
       <c r="D1004">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1004" t="s">
         <v>18</v>
@@ -18207,7 +18207,7 @@
         <v>168</v>
       </c>
       <c r="D1005">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1005" t="s">
         <v>18</v>
@@ -19686,7 +19686,7 @@
         <v>179</v>
       </c>
       <c r="D1092">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E1092" t="s">
         <v>18</v>
@@ -19703,7 +19703,7 @@
         <v>180</v>
       </c>
       <c r="D1093">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1093" t="s">
         <v>18</v>
@@ -19720,7 +19720,7 @@
         <v>181</v>
       </c>
       <c r="D1094">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E1094" t="s">
         <v>18</v>
@@ -19754,7 +19754,7 @@
         <v>183</v>
       </c>
       <c r="D1096">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1096" t="s">
         <v>18</v>
@@ -21216,7 +21216,7 @@
         <v>193</v>
       </c>
       <c r="D1182">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="E1182" t="s">
         <v>18</v>
@@ -21233,7 +21233,7 @@
         <v>194</v>
       </c>
       <c r="D1183">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E1183" t="s">
         <v>18</v>
@@ -21250,7 +21250,7 @@
         <v>195</v>
       </c>
       <c r="D1184">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1184" t="s">
         <v>18</v>
@@ -21267,7 +21267,7 @@
         <v>196</v>
       </c>
       <c r="D1185">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E1185" t="s">
         <v>18</v>
@@ -21284,7 +21284,7 @@
         <v>197</v>
       </c>
       <c r="D1186">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1186" t="s">
         <v>18</v>
@@ -22746,7 +22746,7 @@
         <v>208</v>
       </c>
       <c r="D1272">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E1272" t="s">
         <v>18</v>
@@ -22763,7 +22763,7 @@
         <v>209</v>
       </c>
       <c r="D1273">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E1273" t="s">
         <v>18</v>
@@ -22780,7 +22780,7 @@
         <v>210</v>
       </c>
       <c r="D1274">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1274" t="s">
         <v>18</v>
@@ -22797,7 +22797,7 @@
         <v>211</v>
       </c>
       <c r="D1275">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1275" t="s">
         <v>18</v>
@@ -22814,7 +22814,7 @@
         <v>212</v>
       </c>
       <c r="D1276">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E1276" t="s">
         <v>18</v>
@@ -24276,7 +24276,7 @@
         <v>222</v>
       </c>
       <c r="D1362">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E1362" t="s">
         <v>18</v>
@@ -24293,7 +24293,7 @@
         <v>223</v>
       </c>
       <c r="D1363">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E1363" t="s">
         <v>18</v>
@@ -24310,7 +24310,7 @@
         <v>224</v>
       </c>
       <c r="D1364">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E1364" t="s">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         <v>225</v>
       </c>
       <c r="D1365">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1365" t="s">
         <v>18</v>
@@ -24344,7 +24344,7 @@
         <v>226</v>
       </c>
       <c r="D1366">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E1366" t="s">
         <v>18</v>
